--- a/analysis/releases/2023-08-23_diff.xlsx
+++ b/analysis/releases/2023-08-23_diff.xlsx
@@ -585,16 +585,16 @@
         <v>97.4881516587678</v>
       </c>
       <c r="D8" t="n">
-        <v>10285</v>
+        <v>10328</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
-        <v>97.4881516587678</v>
+        <v>97.8957345971564</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.407582938388629</v>
       </c>
     </row>
     <row r="9">
@@ -677,16 +677,16 @@
         <v>97.4881516587678</v>
       </c>
       <c r="D12" t="n">
-        <v>10285</v>
+        <v>10328</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>97.4881516587678</v>
+        <v>97.8957345971564</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.407582938388629</v>
       </c>
     </row>
     <row r="13">
@@ -700,16 +700,16 @@
         <v>96.3507109004739</v>
       </c>
       <c r="D13" t="n">
-        <v>10165</v>
+        <v>10199</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
-        <v>96.3507109004739</v>
+        <v>96.6729857819905</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.322274881516591</v>
       </c>
     </row>
     <row r="14">
@@ -723,16 +723,16 @@
         <v>85.0710900473934</v>
       </c>
       <c r="D14" t="n">
-        <v>8975</v>
+        <v>9000</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>85.0710900473934</v>
+        <v>85.3080568720379</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.236966824644568</v>
       </c>
     </row>
     <row r="15">
